--- a/outcome/appendix/data/forecast/Dysentery.xlsx
+++ b/outcome/appendix/data/forecast/Dysentery.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,10 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">痢疾</t>
+    <t xml:space="preserve">Dysentery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -424,12 +427,20 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3683.61785899502</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>2910.01922097148</v>
+      </c>
+      <c r="C2" t="n">
+        <v>549.641106192357</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-353.214463325017</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5136.93347886441</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6023.3314768426</v>
+      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -437,7 +448,7 @@
         <v>3309</v>
       </c>
       <c r="I2" t="n">
-        <v>374.617858995023</v>
+        <v>-398.980779028521</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -448,12 +459,20 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3595.22392410343</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>2641.09411182675</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5296.54202669285</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-9723.1196517175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11427.4663390592</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15854.0439640839</v>
+      </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -461,10 +480,10 @@
         <v>1912</v>
       </c>
       <c r="I3" t="n">
-        <v>1683.22392410343</v>
+        <v>729.094111826753</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -472,12 +491,20 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4157.82967176977</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>3519.22437135968</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-350385.392864978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-537996.971637783</v>
+      </c>
+      <c r="E4" t="n">
+        <v>358428.02433809</v>
+      </c>
+      <c r="F4" t="n">
+        <v>546039.603110895</v>
+      </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -485,10 +512,10 @@
         <v>2892</v>
       </c>
       <c r="I4" t="n">
-        <v>1265.82967176977</v>
+        <v>627.224371359676</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -496,12 +523,20 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5145.03936179691</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>4645.70738680205</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12856617.4757084</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-19665153.7304288</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12866644.8113356</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19675181.066056</v>
+      </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -509,10 +544,10 @@
         <v>3695</v>
       </c>
       <c r="I5" t="n">
-        <v>1450.03936179691</v>
+        <v>950.707386802047</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -520,12 +555,20 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>7009.42898794583</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>7414.67522821157</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-502111678.414233</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-767917640.285582</v>
+      </c>
+      <c r="E6" t="n">
+        <v>502127150.443643</v>
+      </c>
+      <c r="F6" t="n">
+        <v>767933112.314992</v>
+      </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -533,10 +576,10 @@
         <v>5664</v>
       </c>
       <c r="I6" t="n">
-        <v>1345.42898794583</v>
+        <v>1750.67522821157</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -544,12 +587,20 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>9132.9137548436</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>9988.42420121421</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-17044082876.3365</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-26066680603.3735</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17044102771.8123</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26066700498.8493</v>
+      </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -557,10 +608,10 @@
         <v>7775</v>
       </c>
       <c r="I7" t="n">
-        <v>1357.9137548436</v>
+        <v>2213.42420121421</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -568,12 +619,20 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>10478.7611433805</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>11758.154212954</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-499714365458.116</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-764247177504.902</v>
+      </c>
+      <c r="E8" t="n">
+        <v>499714388863.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>764247200910.296</v>
+      </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -581,10 +640,10 @@
         <v>7270</v>
       </c>
       <c r="I8" t="n">
-        <v>3208.76114338049</v>
+        <v>4488.15421295398</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -592,23 +651,31 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>10108.0232654316</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>11461.1740822121</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-10303929124431.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-15758499723328.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10303929147796.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15758499746693.2</v>
+      </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>7943</v>
+        <v>7270</v>
       </c>
       <c r="I9" t="n">
-        <v>2165.02326543164</v>
+        <v>4191.17408221208</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -616,12 +683,20 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>8213.53793628375</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>8962.13823663395</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-250281162766778</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-382772007172091</v>
+      </c>
+      <c r="E10" t="n">
+        <v>250281162785500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>382772007190813</v>
+      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -629,10 +704,10 @@
         <v>6206</v>
       </c>
       <c r="I10" t="n">
-        <v>2007.53793628375</v>
+        <v>2756.13823663395</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -640,12 +715,20 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6287.08301782149</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>6520.37905126072</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2286478664768458</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-3496867355833368</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2286478664782174</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3496867355847084</v>
+      </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -653,10 +736,10 @@
         <v>4793</v>
       </c>
       <c r="I11" t="n">
-        <v>1494.08301782149</v>
+        <v>1727.37905126072</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -664,12 +747,20 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>4554.39493623885</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+        <v>4231.05076775432</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-21219556800688724</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-32452511639343488</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21219556800698044</v>
+      </c>
+      <c r="F12" t="n">
+        <v>32452511639352808</v>
+      </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -677,10 +768,10 @@
         <v>3568</v>
       </c>
       <c r="I12" t="n">
-        <v>986.394936238848</v>
+        <v>663.050767754325</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -688,12 +779,20 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3790.03011781513</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>3391.01256850233</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-400042194701998336</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-611811740543648000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>400042194702006016</v>
+      </c>
+      <c r="F13" t="n">
+        <v>611811740543655680</v>
+      </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -701,10 +800,10 @@
         <v>3272</v>
       </c>
       <c r="I13" t="n">
-        <v>518.030117815135</v>
+        <v>119.012568502334</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -712,12 +811,20 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>3584.71636886295</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>2389.09839635075</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-6514301342787893248</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-9962764167729336320</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6514301342787899392</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9962764167729344512</v>
+      </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -725,7 +832,7 @@
         <v>2633</v>
       </c>
       <c r="I14" t="n">
-        <v>951.716368862946</v>
+        <v>-243.901603649254</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -736,12 +843,20 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3568.29103048222</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>2157.91453289608</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-85720509502017273856</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-131098206172438446080</v>
+      </c>
+      <c r="E15" t="n">
+        <v>85720509502017273856</v>
+      </c>
+      <c r="F15" t="n">
+        <v>131098206172438446080</v>
+      </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -749,7 +864,7 @@
         <v>2623</v>
       </c>
       <c r="I15" t="n">
-        <v>945.291030482218</v>
+        <v>-465.085467103915</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -760,12 +875,20 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3980.96297010151</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>3007.3342819884</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-974775636597159886848</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1490790688493015138304</v>
+      </c>
+      <c r="E16" t="n">
+        <v>974775636597159886848</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1490790688493015138304</v>
+      </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -773,7 +896,7 @@
         <v>3488</v>
       </c>
       <c r="I16" t="n">
-        <v>492.962970101515</v>
+        <v>-480.665718011605</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -784,12 +907,20 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4802.84446151776</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>4095.30320790177</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-49741654460341696856064</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-76073295757144404000768</v>
+      </c>
+      <c r="E17" t="n">
+        <v>49741654460341696856064</v>
+      </c>
+      <c r="F17" t="n">
+        <v>76073295757144404000768</v>
+      </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -797,10 +928,10 @@
         <v>3945</v>
       </c>
       <c r="I17" t="n">
-        <v>857.844461517761</v>
+        <v>150.303207901771</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -808,12 +939,20 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6323.93965929351</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>6762.77131357748</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1175398402777035189518336</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1797616731832331299454976</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1175398402777035189518336</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1797616731832331299454976</v>
+      </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -821,10 +960,10 @@
         <v>5011</v>
       </c>
       <c r="I18" t="n">
-        <v>1312.93965929351</v>
+        <v>1751.77131357748</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -832,12 +971,20 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>8222.39158054409</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>9261.2079158145</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-39048587826491353926205440</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-59719661576433609929129984</v>
+      </c>
+      <c r="E19" t="n">
+        <v>39048587826491353926205440</v>
+      </c>
+      <c r="F19" t="n">
+        <v>59719661576433609929129984</v>
+      </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -845,10 +992,10 @@
         <v>6408</v>
       </c>
       <c r="I19" t="n">
-        <v>1814.39158054409</v>
+        <v>2853.2079158145</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -856,12 +1003,20 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>9571.10552326294</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>11011.9769950732</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-513187632682603488143736832</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-784852755372228543382552576</v>
+      </c>
+      <c r="E20" t="n">
+        <v>513187632682603488143736832</v>
+      </c>
+      <c r="F20" t="n">
+        <v>784852755372228543382552576</v>
+      </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -869,10 +1024,10 @@
         <v>6982</v>
       </c>
       <c r="I20" t="n">
-        <v>2589.10552326294</v>
+        <v>4029.97699507318</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -880,12 +1035,20 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>9410.94972152231</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+        <v>10760.3441807911</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-11054464829018980703893716992</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-16906345024076124365409746944</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11054464829018980703893716992</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16906345024076124365409746944</v>
+      </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -893,10 +1056,10 @@
         <v>5326</v>
       </c>
       <c r="I21" t="n">
-        <v>4084.94972152231</v>
+        <v>5434.34418079105</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -904,12 +1067,20 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7775.11600886676</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>8331.89885877251</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-234214142031936034231466065920</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-358199619425744748055900454912</v>
+      </c>
+      <c r="E22" t="n">
+        <v>234214142031936034231466065920</v>
+      </c>
+      <c r="F22" t="n">
+        <v>358199619425744748055900454912</v>
+      </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -917,10 +1088,10 @@
         <v>5159</v>
       </c>
       <c r="I22" t="n">
-        <v>2616.11600886676</v>
+        <v>3172.89885877251</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -928,12 +1099,20 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>5949.14665629868</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>5929.33704488406</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1135729041235798920183788077056</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1736947678786868388015653257216</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1135729041235798920183788077056</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1736947678786868388015653257216</v>
+      </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -941,10 +1120,10 @@
         <v>3745</v>
       </c>
       <c r="I23" t="n">
-        <v>2204.14665629868</v>
+        <v>2184.33704488406</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -952,12 +1131,20 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>4419.90597752604</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>3709.15212292313</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-5777484148432009546771814416384</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-8835899511671825254591716392960</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5777484148432009546771814416384</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8835899511671825254591716392960</v>
+      </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -965,10 +1152,10 @@
         <v>2775</v>
       </c>
       <c r="I24" t="n">
-        <v>1644.90597752604</v>
+        <v>934.152122923125</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -976,12 +1163,20 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3668.38783652558</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
+        <v>2883.03002948502</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-46323809251490885734949174902784</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-70846152586175968502434431500288</v>
+      </c>
+      <c r="E25" t="n">
+        <v>46323809251490885734949174902784</v>
+      </c>
+      <c r="F25" t="n">
+        <v>70846152586175968502434431500288</v>
+      </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -989,10 +1184,10 @@
         <v>2807</v>
       </c>
       <c r="I25" t="n">
-        <v>861.387836525575</v>
+        <v>76.0300294850158</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1000,12 +1195,20 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>3498.82104181975</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>1900.69649097036</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-282116606715306165502297224773632</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-431460117149228609253030055903232</v>
+      </c>
+      <c r="E26" t="n">
+        <v>282116606715306165502297224773632</v>
+      </c>
+      <c r="F26" t="n">
+        <v>431460117149228609253030055903232</v>
+      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1216,7 @@
         <v>2169</v>
       </c>
       <c r="I26" t="n">
-        <v>1329.82104181975</v>
+        <v>-268.303509029643</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1024,12 +1227,20 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3541.05599668384</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
+        <v>1684.69942740548</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2788722607874408900981382067519488</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4264983182306630842114670019477504</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2788722607874408900981382067519488</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4264983182306630842114670019477504</v>
+      </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1037,7 +1248,7 @@
         <v>2043</v>
       </c>
       <c r="I27" t="n">
-        <v>1498.05599668384</v>
+        <v>-358.300572594525</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1048,12 +1259,20 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3863.34228634838</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>2505.80702778735</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-31255863097733081166821966135427072</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-47801717561976138681346100629078016</v>
+      </c>
+      <c r="E28" t="n">
+        <v>31255863097733081166821966135427072</v>
+      </c>
+      <c r="F28" t="n">
+        <v>47801717561976138681346100629078016</v>
+      </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1280,7 @@
         <v>2836</v>
       </c>
       <c r="I28" t="n">
-        <v>1027.34228634838</v>
+        <v>-330.19297221265</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1072,12 +1291,20 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4529.80475904347</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>3552.62594805804</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1356719330763668705517604218888781824</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2074923161048201926205270402244018176</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1356719330763668705517604218888781824</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2074923161048201926205270402244018176</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1085,10 +1312,10 @@
         <v>2587</v>
       </c>
       <c r="I29" t="n">
-        <v>1942.80475904347</v>
+        <v>965.625948058037</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1096,12 +1323,20 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5765.12096141945</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>6137.58699860173</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-40754915211725372523151101547658608640</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-62329264116673089696534562956050956288</v>
+      </c>
+      <c r="E30" t="n">
+        <v>40754915211725372523151101547658608640</v>
+      </c>
+      <c r="F30" t="n">
+        <v>62329264116673089696534562956050956288</v>
+      </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1109,10 +1344,10 @@
         <v>3520</v>
       </c>
       <c r="I30" t="n">
-        <v>2245.12096141945</v>
+        <v>2617.58699860173</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1120,12 +1355,20 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7421.98744981365</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>8565.32883061753</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-813770315706880795974521125685484847104</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1244554299144014698803373217930094313472</v>
+      </c>
+      <c r="E31" t="n">
+        <v>813770315706880795974521125685484847104</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1244554299144014698803373217930094313472</v>
+      </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1133,10 +1376,10 @@
         <v>4708</v>
       </c>
       <c r="I31" t="n">
-        <v>2713.98744981365</v>
+        <v>3857.32883061753</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1144,12 +1387,20 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8738.55906552607</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>10296.2971395785</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-17044632277333442436424178045612650921984</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-26067515573675789287740031035104588464128</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17044632277333442436424178045612650921984</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26067515573675789287740031035104588464128</v>
+      </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1157,10 +1408,10 @@
         <v>5055</v>
       </c>
       <c r="I32" t="n">
-        <v>3683.55906552607</v>
+        <v>5241.29713957847</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1168,12 +1419,20 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>8767.48232208508</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>10088.9373444192</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-699512954344768836671286279563358521786368</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-1069812744251408147727285896069616110665728</v>
+      </c>
+      <c r="E33" t="n">
+        <v>699512954344768836671286279563358521786368</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1069812744251408147727285896069616110665728</v>
+      </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1181,10 +1440,10 @@
         <v>4505</v>
       </c>
       <c r="I33" t="n">
-        <v>4262.48232208508</v>
+        <v>5583.93734441916</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1192,12 +1451,20 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7384.2580326245</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>7731.75367348083</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-15030681744276480212317462556261185723826176</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-22987444027932339185430435229410760635449344</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15030681744276480212317462556261185723826176</v>
+      </c>
+      <c r="F34" t="n">
+        <v>22987444027932339185430435229410760635449344</v>
+      </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1205,10 +1472,10 @@
         <v>3134</v>
       </c>
       <c r="I34" t="n">
-        <v>4250.2580326245</v>
+        <v>4597.75367348083</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1216,12 +1483,20 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5676.92255511255</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>5369.06653979224</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-55571030338033150319955775607343186136006656</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-84988556820218804914443269141183739400814592</v>
+      </c>
+      <c r="E35" t="n">
+        <v>55571030338033150319955775607343186136006656</v>
+      </c>
+      <c r="F35" t="n">
+        <v>84988556820218804914443269141183739400814592</v>
+      </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1229,10 +1504,10 @@
         <v>2559</v>
       </c>
       <c r="I35" t="n">
-        <v>3117.92255511255</v>
+        <v>2810.06653979224</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1240,12 +1515,20 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4293.61826230776</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>3201.25980844688</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-177077794158028718972716275559221078049947648</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-270817116019866290942700212209422729465561088</v>
+      </c>
+      <c r="E36" t="n">
+        <v>177077794158028718972716275559221078049947648</v>
+      </c>
+      <c r="F36" t="n">
+        <v>270817116019866290942700212209422729465561088</v>
+      </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1253,10 +1536,10 @@
         <v>1975</v>
       </c>
       <c r="I36" t="n">
-        <v>2318.61826230776</v>
+        <v>1226.25980844688</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1264,12 +1547,20 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3581.54875703155</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>2392.39029800068</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-943236149803688523013165593736128084054114304</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1442555205920129885931543562551266399085395968</v>
+      </c>
+      <c r="E37" t="n">
+        <v>943236149803688523013165593736128084054114304</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1442555205920129885931543562551266399085395968</v>
+      </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1277,10 +1568,10 @@
         <v>1215</v>
       </c>
       <c r="I37" t="n">
-        <v>2366.54875703155</v>
+        <v>1177.39029800068</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1288,12 +1579,20 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3431.21894279921</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>1423.10610274813</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-5490929586482044941373951199552434187704205312</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-8397652127697921273000388658410298675390578688</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5490929586482044941373951199552434187704205312</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8397652127697921273000388658410298675390578688</v>
+      </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +1600,7 @@
         <v>1924</v>
       </c>
       <c r="I38" t="n">
-        <v>1507.21894279921</v>
+        <v>-500.89389725187</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1312,12 +1611,20 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3514.22773665475</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>1218.11133947179</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-70681717203220745324316647744917413704268513280</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-108098358121771982995485854810914179392900956160</v>
+      </c>
+      <c r="E39" t="n">
+        <v>70681717203220745324316647744917413704268513280</v>
+      </c>
+      <c r="F39" t="n">
+        <v>108098358121771982995485854810914179392900956160</v>
+      </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1632,7 @@
         <v>2346</v>
       </c>
       <c r="I39" t="n">
-        <v>1168.22773665475</v>
+        <v>-1127.88866052821</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1336,12 +1643,20 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3784.0880087326</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
+        <v>2019.81477189243</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-414059920968322857016413204488380849301567307776</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-633250002854582960467696586186069148096605978624</v>
+      </c>
+      <c r="E40" t="n">
+        <v>414059920968322857016413204488380849301567307776</v>
+      </c>
+      <c r="F40" t="n">
+        <v>633250002854582960467696586186069148096605978624</v>
+      </c>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1349,10 +1664,298 @@
         <v>2530</v>
       </c>
       <c r="I40" t="n">
-        <v>1254.0880087326</v>
+        <v>-510.18522810757</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3030.41879971408</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-26694211307412121690713862646418452415191040655360</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-40825273180479590961546235685301590378300196257792</v>
+      </c>
+      <c r="E41" t="n">
+        <v>26694211307412121690713862646418452415191040655360</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40825273180479590961546235685301590378300196257792</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2794</v>
+      </c>
+      <c r="I41" t="n">
+        <v>236.418799714075</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5547.11345907996</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-880178299297243662062441031172755279157472916406272</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-1346116545738226027134397000146468217921528479612928</v>
+      </c>
+      <c r="E42" t="n">
+        <v>880178299297243662062441031172755279157472916406272</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1346116545738226027134397000146468217921528479612928</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3753</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1794.11345907996</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7908.58709800028</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-9020951928037232150106459668558662522341704677195776</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-13796355418368693591746001471907074578267873705197568</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9020951928037232150106459668558662522341704677195776</v>
+      </c>
+      <c r="F43" t="n">
+        <v>13796355418368693591746001471907074578267873705197568</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4353</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3555.58709800028</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9614.39340357361</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-128577273210114909893560289035033932877831477722611712</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-196641970169261650970466346978580061537249236755677184</v>
+      </c>
+      <c r="E44" t="n">
+        <v>128577273210114909893560289035033932877831477722611712</v>
+      </c>
+      <c r="F44" t="n">
+        <v>196641970169261650970466346978580061537249236755677184</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4684</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4930.39340357361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9443.68921851107</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-10282978827144783610173740652856279649604790437304860672</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-15726459002394536407383407832121579940283693490526748672</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10282978827144783610173740652856279649604790437304860672</v>
+      </c>
+      <c r="F45" t="n">
+        <v>15726459002394536407383407832121579940283693490526748672</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4626</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4817.68921851107</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7154.47645730825</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-244330471304063919006122306213405130322679458926373634048</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-373671209927601118617856624930949477131239527770100858880</v>
+      </c>
+      <c r="E46" t="n">
+        <v>244330471304063919006122306213405130322679458926373634048</v>
+      </c>
+      <c r="F46" t="n">
+        <v>373671209927601118617856624930949477131239527770100858880</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3658</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3496.47645730825</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4831.66785549907</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1003496203438535563882921535275057751194739199361993932800</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1534715005030953749689115973836137375741385145382623772672</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1003496203438535563882921535275057751194739199361993932800</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1534715005030953749689115973836137375741385145382623772672</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3067</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1764.66785549907</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2703.72818524834</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2862827810269888647061194609447549737397122587462870237184</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-4378317309209647386492002246738533352218252429928918155264</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2862827810269888647061194609447549737397122587462870237184</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4378317309209647386492002246738533352218252429928918155264</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1963</v>
+      </c>
+      <c r="I48" t="n">
+        <v>740.72818524834</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1912.29987205566</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-11609910659466301927599893600282778846611585104249123504128</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-17755826115831540167323366630278013061763434965405959979008</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11609910659466301927599893600282778846611585104249123504128</v>
+      </c>
+      <c r="F49" t="n">
+        <v>17755826115831540167323366630278013061763434965405959979008</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1727</v>
+      </c>
+      <c r="I49" t="n">
+        <v>185.299872055657</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/forecast/Dysentery.xlsx
+++ b/outcome/appendix/data/forecast/Dysentery.xlsx
@@ -462,16 +462,16 @@
         <v>2641.09411182675</v>
       </c>
       <c r="C3" t="n">
-        <v>-5296.54202669285</v>
+        <v>-9807.23155906051</v>
       </c>
       <c r="D3" t="n">
-        <v>-9723.1196517175</v>
+        <v>-16621.6239855056</v>
       </c>
       <c r="E3" t="n">
-        <v>11427.4663390592</v>
+        <v>15938.1558714269</v>
       </c>
       <c r="F3" t="n">
-        <v>15854.0439640839</v>
+        <v>22752.548297872</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>3519.22437135968</v>
       </c>
       <c r="C4" t="n">
-        <v>-350385.392864978</v>
+        <v>-863394.440299206</v>
       </c>
       <c r="D4" t="n">
-        <v>-537996.971637783</v>
+        <v>-1322576.60444172</v>
       </c>
       <c r="E4" t="n">
-        <v>358428.02433809</v>
+        <v>871437.071772318</v>
       </c>
       <c r="F4" t="n">
-        <v>546039.603110895</v>
+        <v>1330619.23591483</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>4645.70738680205</v>
       </c>
       <c r="C5" t="n">
-        <v>-12856617.4757084</v>
+        <v>-53940277.7328909</v>
       </c>
       <c r="D5" t="n">
-        <v>-19665153.7304288</v>
+        <v>-82497190.0074386</v>
       </c>
       <c r="E5" t="n">
-        <v>12866644.8113356</v>
+        <v>53950305.0685181</v>
       </c>
       <c r="F5" t="n">
-        <v>19675181.066056</v>
+        <v>82507217.3430658</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>7414.67522821157</v>
       </c>
       <c r="C6" t="n">
-        <v>-502111678.414233</v>
+        <v>-4179036516.20903</v>
       </c>
       <c r="D6" t="n">
-        <v>-767917640.285582</v>
+        <v>-6391288911.24656</v>
       </c>
       <c r="E6" t="n">
-        <v>502127150.443643</v>
+        <v>4179051988.23844</v>
       </c>
       <c r="F6" t="n">
-        <v>767933112.314992</v>
+        <v>6391304383.27597</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>9988.42420121421</v>
       </c>
       <c r="C7" t="n">
-        <v>-17044082876.3365</v>
+        <v>-270358737779.052</v>
       </c>
       <c r="D7" t="n">
-        <v>-26066680603.3735</v>
+        <v>-413478013642.111</v>
       </c>
       <c r="E7" t="n">
-        <v>17044102771.8123</v>
+        <v>270358757674.528</v>
       </c>
       <c r="F7" t="n">
-        <v>26066700498.8493</v>
+        <v>413478033537.587</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>11758.154212954</v>
       </c>
       <c r="C8" t="n">
-        <v>-499714365458.116</v>
+        <v>-15055545637028.3</v>
       </c>
       <c r="D8" t="n">
-        <v>-764247177504.902</v>
+        <v>-23025470076636.5</v>
       </c>
       <c r="E8" t="n">
-        <v>499714388863.51</v>
+        <v>15055545660433.7</v>
       </c>
       <c r="F8" t="n">
-        <v>764247200910.296</v>
+        <v>23025470100041.9</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>11461.1740822121</v>
       </c>
       <c r="C9" t="n">
-        <v>-10303929124431.9</v>
+        <v>-787419112880695</v>
       </c>
       <c r="D9" t="n">
-        <v>-15758499723328.2</v>
+        <v>-1204253612172624</v>
       </c>
       <c r="E9" t="n">
-        <v>10303929147796.9</v>
+        <v>787419112904060</v>
       </c>
       <c r="F9" t="n">
-        <v>15758499746693.2</v>
+        <v>1204253612195988</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>8962.13823663395</v>
       </c>
       <c r="C10" t="n">
-        <v>-250281162766778</v>
+        <v>-30466764831787824</v>
       </c>
       <c r="D10" t="n">
-        <v>-382772007172091</v>
+        <v>-46594895906811504</v>
       </c>
       <c r="E10" t="n">
-        <v>250281162785500</v>
+        <v>30466764831806544</v>
       </c>
       <c r="F10" t="n">
-        <v>382772007190813</v>
+        <v>46594895906830224</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>6520.37905126072</v>
       </c>
       <c r="C11" t="n">
-        <v>-2286478664768458</v>
+        <v>-1040368815134178944</v>
       </c>
       <c r="D11" t="n">
-        <v>-3496867355833368</v>
+        <v>-1591106798293431552</v>
       </c>
       <c r="E11" t="n">
-        <v>2286478664782174</v>
+        <v>1040368815134192768</v>
       </c>
       <c r="F11" t="n">
-        <v>3496867355847084</v>
+        <v>1591106798293445376</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>4231.05076775432</v>
       </c>
       <c r="C12" t="n">
-        <v>-21219556800688724</v>
+        <v>-31831961780161175552</v>
       </c>
       <c r="D12" t="n">
-        <v>-32452511639343488</v>
+        <v>-48682784465140670464</v>
       </c>
       <c r="E12" t="n">
-        <v>21219556800698044</v>
+        <v>31831961780161183744</v>
       </c>
       <c r="F12" t="n">
-        <v>32452511639352808</v>
+        <v>48682784465140686848</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>3391.01256850233</v>
       </c>
       <c r="C13" t="n">
-        <v>-400042194701998336</v>
+        <v>-936162777656131452928</v>
       </c>
       <c r="D13" t="n">
-        <v>-611811740543648000</v>
+        <v>-1431737416740832018432</v>
       </c>
       <c r="E13" t="n">
-        <v>400042194702006016</v>
+        <v>936162777656131452928</v>
       </c>
       <c r="F13" t="n">
-        <v>611811740543655680</v>
+        <v>1431737416740832018432</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>2389.09839635075</v>
       </c>
       <c r="C14" t="n">
-        <v>-6514301342787893248</v>
+        <v>-28424710132708803608576</v>
       </c>
       <c r="D14" t="n">
-        <v>-9962764167729336320</v>
+        <v>-43471842748227758587904</v>
       </c>
       <c r="E14" t="n">
-        <v>6514301342787899392</v>
+        <v>28424710132708803608576</v>
       </c>
       <c r="F14" t="n">
-        <v>9962764167729344512</v>
+        <v>43471842748227758587904</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>2157.91453289608</v>
       </c>
       <c r="C15" t="n">
-        <v>-85720509502017273856</v>
+        <v>-1033670302870821035573248</v>
       </c>
       <c r="D15" t="n">
-        <v>-131098206172438446080</v>
+        <v>-1580862307834238068588544</v>
       </c>
       <c r="E15" t="n">
-        <v>85720509502017273856</v>
+        <v>1033670302870821035573248</v>
       </c>
       <c r="F15" t="n">
-        <v>131098206172438446080</v>
+        <v>1580862307834238068588544</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>3007.3342819884</v>
       </c>
       <c r="C16" t="n">
-        <v>-974775636597159886848</v>
+        <v>-40333197101286635104894976</v>
       </c>
       <c r="D16" t="n">
-        <v>-1490790688493015138304</v>
+        <v>-61684301923726166885138432</v>
       </c>
       <c r="E16" t="n">
-        <v>974775636597159886848</v>
+        <v>40333197101286635104894976</v>
       </c>
       <c r="F16" t="n">
-        <v>1490790688493015138304</v>
+        <v>61684301923726166885138432</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>4095.30320790177</v>
       </c>
       <c r="C17" t="n">
-        <v>-49741654460341696856064</v>
+        <v>-1815770071327454648149737472</v>
       </c>
       <c r="D17" t="n">
-        <v>-76073295757144404000768</v>
+        <v>-2776980684733657082213957632</v>
       </c>
       <c r="E17" t="n">
-        <v>49741654460341696856064</v>
+        <v>1815770071327454648149737472</v>
       </c>
       <c r="F17" t="n">
-        <v>76073295757144404000768</v>
+        <v>2776980684733657082213957632</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>6762.77131357748</v>
       </c>
       <c r="C18" t="n">
-        <v>-1175398402777035189518336</v>
+        <v>-87416661821494405401596133376</v>
       </c>
       <c r="D18" t="n">
-        <v>-1797616731832331299454976</v>
+        <v>-133692247292474460362277650432</v>
       </c>
       <c r="E18" t="n">
-        <v>1175398402777035189518336</v>
+        <v>87416661821494405401596133376</v>
       </c>
       <c r="F18" t="n">
-        <v>1797616731832331299454976</v>
+        <v>133692247292474460362277650432</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>9261.2079158145</v>
       </c>
       <c r="C19" t="n">
-        <v>-39048587826491353926205440</v>
+        <v>-2607568517389463260447771721728</v>
       </c>
       <c r="D19" t="n">
-        <v>-59719661576433609929129984</v>
+        <v>-3987931909030927203420361195520</v>
       </c>
       <c r="E19" t="n">
-        <v>39048587826491353926205440</v>
+        <v>2607568517389463260447771721728</v>
       </c>
       <c r="F19" t="n">
-        <v>59719661576433609929129984</v>
+        <v>3987931909030927203420361195520</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>11011.9769950732</v>
       </c>
       <c r="C20" t="n">
-        <v>-513187632682603488143736832</v>
+        <v>-72810604096022453446413031309312</v>
       </c>
       <c r="D20" t="n">
-        <v>-784852755372228543382552576</v>
+        <v>-111354209660822299364269523730432</v>
       </c>
       <c r="E20" t="n">
-        <v>513187632682603488143736832</v>
+        <v>72810604096022453446413031309312</v>
       </c>
       <c r="F20" t="n">
-        <v>784852755372228543382552576</v>
+        <v>111354209660822299364269523730432</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>10760.3441807911</v>
       </c>
       <c r="C21" t="n">
-        <v>-11054464829018980703893716992</v>
+        <v>-1805060831116090865329828869963776</v>
       </c>
       <c r="D21" t="n">
-        <v>-16906345024076124365409746944</v>
+        <v>-2760602315200674893537136835821568</v>
       </c>
       <c r="E21" t="n">
-        <v>11054464829018980703893716992</v>
+        <v>1805060831116090865329828869963776</v>
       </c>
       <c r="F21" t="n">
-        <v>16906345024076124365409746944</v>
+        <v>2760602315200674893537136835821568</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>8331.89885877251</v>
       </c>
       <c r="C22" t="n">
-        <v>-234214142031936034231466065920</v>
+        <v>-29404348507753379985283137658683392</v>
       </c>
       <c r="D22" t="n">
-        <v>-358199619425744748055900454912</v>
+        <v>-44970070353407871097488798050680832</v>
       </c>
       <c r="E22" t="n">
-        <v>234214142031936034231466065920</v>
+        <v>29404348507753379985283137658683392</v>
       </c>
       <c r="F22" t="n">
-        <v>358199619425744748055900454912</v>
+        <v>44970070353407871097488798050680832</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>5929.33704488406</v>
       </c>
       <c r="C23" t="n">
-        <v>-1135729041235798920183788077056</v>
+        <v>-585563685289515906262356541610917888</v>
       </c>
       <c r="D23" t="n">
-        <v>-1736947678786868388015653257216</v>
+        <v>-895542375881133252026118289494114304</v>
       </c>
       <c r="E23" t="n">
-        <v>1135729041235798920183788077056</v>
+        <v>585563685289515906262356541610917888</v>
       </c>
       <c r="F23" t="n">
-        <v>1736947678786868388015653257216</v>
+        <v>895542375881133252026118289494114304</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>3709.15212292313</v>
       </c>
       <c r="C24" t="n">
-        <v>-5777484148432009546771814416384</v>
+        <v>-10632489090162717624762453425288904704</v>
       </c>
       <c r="D24" t="n">
-        <v>-8835899511671825254591716392960</v>
+        <v>-16260988822465543396224952367344254976</v>
       </c>
       <c r="E24" t="n">
-        <v>5777484148432009546771814416384</v>
+        <v>10632489090162717624762453425288904704</v>
       </c>
       <c r="F24" t="n">
-        <v>8835899511671825254591716392960</v>
+        <v>16260988822465543396224952367344254976</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>2883.03002948502</v>
       </c>
       <c r="C25" t="n">
-        <v>-46323809251490885734949174902784</v>
+        <v>-142311180881092251596589743959800020992</v>
       </c>
       <c r="D25" t="n">
-        <v>-70846152586175968502434431500288</v>
+        <v>-217646169396059850462535106331116830720</v>
       </c>
       <c r="E25" t="n">
-        <v>46323809251490885734949174902784</v>
+        <v>142311180881092251596589743959800020992</v>
       </c>
       <c r="F25" t="n">
-        <v>70846152586175968502434431500288</v>
+        <v>217646169396059850462535106331116830720</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1900.69649097036</v>
       </c>
       <c r="C26" t="n">
-        <v>-282116606715306165502297224773632</v>
+        <v>-2635626898914947772330675855914038198272</v>
       </c>
       <c r="D26" t="n">
-        <v>-431460117149228609253030055903232</v>
+        <v>-4030843500521249512961509706595167109120</v>
       </c>
       <c r="E26" t="n">
-        <v>282116606715306165502297224773632</v>
+        <v>2635626898914947772330675855914038198272</v>
       </c>
       <c r="F26" t="n">
-        <v>431460117149228609253030055903232</v>
+        <v>4030843500521249512961509706595167109120</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1684.69942740548</v>
       </c>
       <c r="C27" t="n">
-        <v>-2788722607874408900981382067519488</v>
+        <v>-41925702594993479098299478211999372935168</v>
       </c>
       <c r="D27" t="n">
-        <v>-4264983182306630842114670019477504</v>
+        <v>-64119828902713701549837211494144381288448</v>
       </c>
       <c r="E27" t="n">
-        <v>2788722607874408900981382067519488</v>
+        <v>41925702594993479098299478211999372935168</v>
       </c>
       <c r="F27" t="n">
-        <v>4264983182306630842114670019477504</v>
+        <v>64119828902713701549837211494144381288448</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>2505.80702778735</v>
       </c>
       <c r="C28" t="n">
-        <v>-31255863097733081166821966135427072</v>
+        <v>-979048024431471335623153213386902695051264</v>
       </c>
       <c r="D28" t="n">
-        <v>-47801717561976138681346100629078016</v>
+        <v>-1497324741829900891703174507345535765053440</v>
       </c>
       <c r="E28" t="n">
-        <v>31255863097733081166821966135427072</v>
+        <v>979048024431471335623153213386902695051264</v>
       </c>
       <c r="F28" t="n">
-        <v>47801717561976138681346100629078016</v>
+        <v>1497324741829900891703174507345535765053440</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>3552.62594805804</v>
       </c>
       <c r="C29" t="n">
-        <v>-1356719330763668705517604218888781824</v>
+        <v>-14900277853483197142137856406403813851791360</v>
       </c>
       <c r="D29" t="n">
-        <v>-2074923161048201926205270402244018176</v>
+        <v>-22788008487240603917045630013696958883954688</v>
       </c>
       <c r="E29" t="n">
-        <v>1356719330763668705517604218888781824</v>
+        <v>14900277853483197142137856406403813851791360</v>
       </c>
       <c r="F29" t="n">
-        <v>2074923161048201926205270402244018176</v>
+        <v>22788008487240603917045630013696958883954688</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>6137.58699860173</v>
       </c>
       <c r="C30" t="n">
-        <v>-40754915211725372523151101547658608640</v>
+        <v>-392297990193049084398524775084373154570698752</v>
       </c>
       <c r="D30" t="n">
-        <v>-62329264116673089696534562956050956288</v>
+        <v>-599968001801847422940177881072631095253532672</v>
       </c>
       <c r="E30" t="n">
-        <v>40754915211725372523151101547658608640</v>
+        <v>392297990193049084398524775084373154570698752</v>
       </c>
       <c r="F30" t="n">
-        <v>62329264116673089696534562956050956288</v>
+        <v>599968001801847422940177881072631095253532672</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>8565.32883061753</v>
       </c>
       <c r="C31" t="n">
-        <v>-813770315706880795974521125685484847104</v>
+        <v>-6922276890177248784995930738399473110446243840</v>
       </c>
       <c r="D31" t="n">
-        <v>-1244554299144014698803373217930094313472</v>
+        <v>-10586708924190500158321572444679762125397164032</v>
       </c>
       <c r="E31" t="n">
-        <v>813770315706880795974521125685484847104</v>
+        <v>6922276890177248784995930738399473110446243840</v>
       </c>
       <c r="F31" t="n">
-        <v>1244554299144014698803373217930094313472</v>
+        <v>10586708924190500158321572444679762125397164032</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>10296.2971395785</v>
       </c>
       <c r="C32" t="n">
-        <v>-17044632277333442436424178045612650921984</v>
+        <v>-161708815042621298157041990250221703196896657408</v>
       </c>
       <c r="D32" t="n">
-        <v>-26067515573675789287740031035104588464128</v>
+        <v>-247312290810163518126855727299054798172913139712</v>
       </c>
       <c r="E32" t="n">
-        <v>17044632277333442436424178045612650921984</v>
+        <v>161708815042621298157041990250221703196896657408</v>
       </c>
       <c r="F32" t="n">
-        <v>26067515573675789287740031035104588464128</v>
+        <v>247312290810163518126855727299054798172913139712</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>10088.9373444192</v>
       </c>
       <c r="C33" t="n">
-        <v>-699512954344768836671286279563358521786368</v>
+        <v>-2458162606636248021838174478939007923120374808576</v>
       </c>
       <c r="D33" t="n">
-        <v>-1069812744251408147727285896069616110665728</v>
+        <v>-3759435286634567674477840838150635954562442199040</v>
       </c>
       <c r="E33" t="n">
-        <v>699512954344768836671286279563358521786368</v>
+        <v>2458162606636248021838174478939007923120374808576</v>
       </c>
       <c r="F33" t="n">
-        <v>1069812744251408147727285896069616110665728</v>
+        <v>3759435286634567674477840838150635954562442199040</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>7731.75367348083</v>
       </c>
       <c r="C34" t="n">
-        <v>-15030681744276480212317462556261185723826176</v>
+        <v>-27657949259095620782806186112220824922247441416192</v>
       </c>
       <c r="D34" t="n">
-        <v>-22987444027932339185430435229410760635449344</v>
+        <v>-42299183186614512555270935545862627425826168111104</v>
       </c>
       <c r="E34" t="n">
-        <v>15030681744276480212317462556261185723826176</v>
+        <v>27657949259095620782806186112220824922247441416192</v>
       </c>
       <c r="F34" t="n">
-        <v>22987444027932339185430435229410760635449344</v>
+        <v>42299183186614512555270935545862627425826168111104</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>5369.06653979224</v>
       </c>
       <c r="C35" t="n">
-        <v>-55571030338033150319955775607343186136006656</v>
+        <v>-800720002170637971502699942050878381220915037863936</v>
       </c>
       <c r="D35" t="n">
-        <v>-84988556820218804914443269141183739400814592</v>
+        <v>-1224595566927787634518521835500953059111142068060160</v>
       </c>
       <c r="E35" t="n">
-        <v>55571030338033150319955775607343186136006656</v>
+        <v>800720002170637971502699942050878381220915037863936</v>
       </c>
       <c r="F35" t="n">
-        <v>84988556820218804914443269141183739400814592</v>
+        <v>1224595566927787634518521835500953059111142068060160</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>3201.25980844688</v>
       </c>
       <c r="C36" t="n">
-        <v>-177077794158028718972716275559221078049947648</v>
+        <v>-8581339640080612456644116287188687444562481363550208</v>
       </c>
       <c r="D36" t="n">
-        <v>-270817116019866290942700212209422729465561088</v>
+        <v>-13124026442522859214135801993394106818580019815645184</v>
       </c>
       <c r="E36" t="n">
-        <v>177077794158028718972716275559221078049947648</v>
+        <v>8581339640080612456644116287188687444562481363550208</v>
       </c>
       <c r="F36" t="n">
-        <v>270817116019866290942700212209422729465561088</v>
+        <v>13124026442522859214135801993394106818580019815645184</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>2392.39029800068</v>
       </c>
       <c r="C37" t="n">
-        <v>-943236149803688523013165593736128084054114304</v>
+        <v>-114393232284826357605224828814912211683080968773566464</v>
       </c>
       <c r="D37" t="n">
-        <v>-1442555205920129885931543562551266399085395968</v>
+        <v>-174949351537100759951599060509534404345025976632082432</v>
       </c>
       <c r="E37" t="n">
-        <v>943236149803688523013165593736128084054114304</v>
+        <v>114393232284826357605224828814912211683080968773566464</v>
       </c>
       <c r="F37" t="n">
-        <v>1442555205920129885931543562551266399085395968</v>
+        <v>174949351537100759951599060509534404345025976632082432</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>1423.10610274813</v>
       </c>
       <c r="C38" t="n">
-        <v>-5490929586482044941373951199552434187704205312</v>
+        <v>-2419650849648524582604823842297742666365188547891167232</v>
       </c>
       <c r="D38" t="n">
-        <v>-8397652127697921273000388658410298675390578688</v>
+        <v>-3700536636976861139854298567283638245428071894190391296</v>
       </c>
       <c r="E38" t="n">
-        <v>5490929586482044941373951199552434187704205312</v>
+        <v>2419650849648524582604823842297742666365188547891167232</v>
       </c>
       <c r="F38" t="n">
-        <v>8397652127697921273000388658410298675390578688</v>
+        <v>3700536636976861139854298567283638245428071894190391296</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>1218.11133947179</v>
       </c>
       <c r="C39" t="n">
-        <v>-70681717203220745324316647744917413704268513280</v>
+        <v>-29071824755789234094964597689437587662909849549240532992</v>
       </c>
       <c r="D39" t="n">
-        <v>-108098358121771982995485854810914179392900956160</v>
+        <v>-44461519160169780322023461475082605785673499805854203904</v>
       </c>
       <c r="E39" t="n">
-        <v>70681717203220745324316647744917413704268513280</v>
+        <v>29071824755789234094964597689437587662909849549240532992</v>
       </c>
       <c r="F39" t="n">
-        <v>108098358121771982995485854810914179392900956160</v>
+        <v>44461519160169780322023461475082605785673499805854203904</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>2019.81477189243</v>
       </c>
       <c r="C40" t="n">
-        <v>-414059920968322857016413204488380849301567307776</v>
+        <v>-616443298774151558658683142238886465293907280915970654208</v>
       </c>
       <c r="D40" t="n">
-        <v>-633250002854582960467696586186069148096605978624</v>
+        <v>-942768669316063188833780910375734756922126267772448014336</v>
       </c>
       <c r="E40" t="n">
-        <v>414059920968322857016413204488380849301567307776</v>
+        <v>616443298774151558658683142238886465293907280915970654208</v>
       </c>
       <c r="F40" t="n">
-        <v>633250002854582960467696586186069148096605978624</v>
+        <v>942768669316063188833780910375734756922126267772448014336</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1678,16 +1678,16 @@
         <v>3030.41879971408</v>
       </c>
       <c r="C41" t="n">
-        <v>-26694211307412121690713862646418452415191040655360</v>
+        <v>-5617122402776971315145123985188989725076465356043823611904</v>
       </c>
       <c r="D41" t="n">
-        <v>-40825273180479590961546235685301590378300196257792</v>
+        <v>-8590647385708182677498940795156121803315261269305198641152</v>
       </c>
       <c r="E41" t="n">
-        <v>26694211307412121690713862646418452415191040655360</v>
+        <v>5617122402776971315145123985188989725076465356043823611904</v>
       </c>
       <c r="F41" t="n">
-        <v>40825273180479590961546235685301590378300196257792</v>
+        <v>8590647385708182677498940795156121803315261269305198641152</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1710,16 +1710,16 @@
         <v>5547.11345907996</v>
       </c>
       <c r="C42" t="n">
-        <v>-880178299297243662062441031172755279157472916406272</v>
+        <v>-214630840238530406070452665378489343916387845655915009146880</v>
       </c>
       <c r="D42" t="n">
-        <v>-1346116545738226027134397000146468217921528479612928</v>
+        <v>-328249543872489310119794546712731851586368468949410575810560</v>
       </c>
       <c r="E42" t="n">
-        <v>880178299297243662062441031172755279157472916406272</v>
+        <v>214630840238530406070452665378489343916387845655915009146880</v>
       </c>
       <c r="F42" t="n">
-        <v>1346116545738226027134397000146468217921528479612928</v>
+        <v>328249543872489310119794546712731851586368468949410575810560</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1742,16 +1742,16 @@
         <v>7908.58709800028</v>
       </c>
       <c r="C43" t="n">
-        <v>-9020951928037232150106459668558662522341704677195776</v>
+        <v>-5164908277320900297348002477303093118881448922993813480275968</v>
       </c>
       <c r="D43" t="n">
-        <v>-13796355418368693591746001471907074578267873705197568</v>
+        <v>-7899045562556001743592488328627383717754034153164874430021632</v>
       </c>
       <c r="E43" t="n">
-        <v>9020951928037232150106459668558662522341704677195776</v>
+        <v>5164908277320900297348002477303093118881448922993813480275968</v>
       </c>
       <c r="F43" t="n">
-        <v>13796355418368693591746001471907074578267873705197568</v>
+        <v>7899045562556001743592488328627383717754034153164874430021632</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1774,16 +1774,16 @@
         <v>9614.39340357361</v>
       </c>
       <c r="C44" t="n">
-        <v>-128577273210114909893560289035033932877831477722611712</v>
+        <v>-87144676138041879385264355663960042540298963059991658671112192</v>
       </c>
       <c r="D44" t="n">
-        <v>-196641970169261650970466346978580061537249236755677184</v>
+        <v>-133276281085409736632830239088877748690706063944799118044430336</v>
       </c>
       <c r="E44" t="n">
-        <v>128577273210114909893560289035033932877831477722611712</v>
+        <v>87144676138041879385264355663960042540298963059991658671112192</v>
       </c>
       <c r="F44" t="n">
-        <v>196641970169261650970466346978580061537249236755677184</v>
+        <v>133276281085409736632830239088877748690706063944799118044430336</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1806,16 +1806,16 @@
         <v>9443.68921851107</v>
       </c>
       <c r="C45" t="n">
-        <v>-10282978827144783610173740652856279649604790437304860672</v>
+        <v>-1189889216181499999186606339015227965701287615333829112535973888</v>
       </c>
       <c r="D45" t="n">
-        <v>-15726459002394536407383407832121579940283693490526748672</v>
+        <v>-1819778518484569619777959025389338373038453418711005753851772928</v>
       </c>
       <c r="E45" t="n">
-        <v>10282978827144783610173740652856279649604790437304860672</v>
+        <v>1189889216181499999186606339015227965701287615333829112535973888</v>
       </c>
       <c r="F45" t="n">
-        <v>15726459002394536407383407832121579940283693490526748672</v>
+        <v>1819778518484569619777959025389338373038453418711005753851772928</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1838,16 +1838,16 @@
         <v>7154.47645730825</v>
       </c>
       <c r="C46" t="n">
-        <v>-244330471304063919006122306213405130322679458926373634048</v>
+        <v>-19206994199608285832556348752188839979411349456968172493741228032</v>
       </c>
       <c r="D46" t="n">
-        <v>-373671209927601118617856624930949477131239527770100858880</v>
+        <v>-29374562752380975608566943643280442516548874136982043663429271552</v>
       </c>
       <c r="E46" t="n">
-        <v>244330471304063919006122306213405130322679458926373634048</v>
+        <v>19206994199608285832556348752188839979411349456968172493741228032</v>
       </c>
       <c r="F46" t="n">
-        <v>373671209927601118617856624930949477131239527770100858880</v>
+        <v>29374562752380975608566943643280442516548874136982043663429271552</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1870,16 +1870,16 @@
         <v>4831.66785549907</v>
       </c>
       <c r="C47" t="n">
-        <v>-1003496203438535563882921535275057751194739199361993932800</v>
+        <v>-332607526480570855855440480122196164837922405895362158854525681664</v>
       </c>
       <c r="D47" t="n">
-        <v>-1534715005030953749689115973836137375741385145382623772672</v>
+        <v>-508679315304682199970815666697063919675696547213560052894262099968</v>
       </c>
       <c r="E47" t="n">
-        <v>1003496203438535563882921535275057751194739199361993932800</v>
+        <v>332607526480570855855440480122196164837922405895362158854525681664</v>
       </c>
       <c r="F47" t="n">
-        <v>1534715005030953749689115973836137375741385145382623772672</v>
+        <v>508679315304682199970815666697063919675696547213560052894262099968</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1902,16 +1902,16 @@
         <v>2703.72818524834</v>
       </c>
       <c r="C48" t="n">
-        <v>-2862827810269888647061194609447549737397122587462870237184</v>
+        <v>-2992773773501315156244933626876914041585021634965574118913043595264</v>
       </c>
       <c r="D48" t="n">
-        <v>-4378317309209647386492002246738533352218252429928918155264</v>
+        <v>-4577052510131298346276534238737995138314769039341722758279505903616</v>
       </c>
       <c r="E48" t="n">
-        <v>2862827810269888647061194609447549737397122587462870237184</v>
+        <v>2992773773501315156244933626876914041585021634965574118913043595264</v>
       </c>
       <c r="F48" t="n">
-        <v>4378317309209647386492002246738533352218252429928918155264</v>
+        <v>4577052510131298346276534238737995138314769039341722758279505903616</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1934,16 +1934,16 @@
         <v>1912.29987205566</v>
       </c>
       <c r="C49" t="n">
-        <v>-11609910659466301927599893600282778846611585104249123504128</v>
+        <v>-32513115514090295029051227168076364917870381283466260033984104759296</v>
       </c>
       <c r="D49" t="n">
-        <v>-17755826115831540167323366630278013061763434965405959979008</v>
+        <v>-49724519204755869372014425501417636065766055609767413556941386940416</v>
       </c>
       <c r="E49" t="n">
-        <v>11609910659466301927599893600282778846611585104249123504128</v>
+        <v>32513115514090295029051227168076364917870381283466260033984104759296</v>
       </c>
       <c r="F49" t="n">
-        <v>17755826115831540167323366630278013061763434965405959979008</v>
+        <v>49724519204755869372014425501417636065766055609767413556941386940416</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>

--- a/outcome/appendix/data/forecast/Dysentery.xlsx
+++ b/outcome/appendix/data/forecast/Dysentery.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2910.01922097148</v>
+        <v>2909.57093508748</v>
       </c>
       <c r="C2" t="n">
-        <v>549.641106192357</v>
+        <v>549.645169812508</v>
       </c>
       <c r="D2" t="n">
-        <v>-353.214463325017</v>
+        <v>-353.193936887797</v>
       </c>
       <c r="E2" t="n">
-        <v>5136.93347886441</v>
+        <v>5138.41215386779</v>
       </c>
       <c r="F2" t="n">
-        <v>6023.3314768426</v>
+        <v>6026.54325626773</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>3309</v>
       </c>
       <c r="I2" t="n">
-        <v>-398.980779028521</v>
+        <v>-399.429064912524</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2641.09411182675</v>
+        <v>2639.85834230887</v>
       </c>
       <c r="C3" t="n">
-        <v>-9807.23155906051</v>
+        <v>-6304.28878463518</v>
       </c>
       <c r="D3" t="n">
-        <v>-16621.6239855056</v>
+        <v>-11263.1914341854</v>
       </c>
       <c r="E3" t="n">
-        <v>15938.1558714269</v>
+        <v>12430.8913977222</v>
       </c>
       <c r="F3" t="n">
-        <v>22752.548297872</v>
+        <v>17389.7940472724</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1912</v>
       </c>
       <c r="I3" t="n">
-        <v>729.094111826753</v>
+        <v>727.858342308874</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3519.22437135968</v>
+        <v>3518.35076603024</v>
       </c>
       <c r="C4" t="n">
-        <v>-863394.440299206</v>
+        <v>-434803.412244978</v>
       </c>
       <c r="D4" t="n">
-        <v>-1322576.60444172</v>
+        <v>-667102.825080297</v>
       </c>
       <c r="E4" t="n">
-        <v>871437.071772318</v>
+        <v>442844.660987563</v>
       </c>
       <c r="F4" t="n">
-        <v>1330619.23591483</v>
+        <v>675144.073822881</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2892</v>
       </c>
       <c r="I4" t="n">
-        <v>627.224371359676</v>
+        <v>626.350766030242</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4645.70738680205</v>
+        <v>4643.87952250342</v>
       </c>
       <c r="C5" t="n">
-        <v>-53940277.7328909</v>
+        <v>-12303463.1343912</v>
       </c>
       <c r="D5" t="n">
-        <v>-82497190.0074386</v>
+        <v>-18819173.9475394</v>
       </c>
       <c r="E5" t="n">
-        <v>53950305.0685181</v>
+        <v>12313478.2995245</v>
       </c>
       <c r="F5" t="n">
-        <v>82507217.3430658</v>
+        <v>18829189.1126728</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3695</v>
       </c>
       <c r="I5" t="n">
-        <v>950.707386802047</v>
+        <v>948.879522503416</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>7414.67522821157</v>
+        <v>7410.36313226772</v>
       </c>
       <c r="C6" t="n">
-        <v>-4179036516.20903</v>
+        <v>-449971619.6168</v>
       </c>
       <c r="D6" t="n">
-        <v>-6391288911.24656</v>
+        <v>-688176291.43854</v>
       </c>
       <c r="E6" t="n">
-        <v>4179051988.23844</v>
+        <v>449987053.148103</v>
       </c>
       <c r="F6" t="n">
-        <v>6391304383.27597</v>
+        <v>688191724.969842</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5664</v>
       </c>
       <c r="I6" t="n">
-        <v>1750.67522821157</v>
+        <v>1746.36313226772</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>9988.42420121421</v>
+        <v>9985.76463676464</v>
       </c>
       <c r="C7" t="n">
-        <v>-270358737779.052</v>
+        <v>-8345602652.92053</v>
       </c>
       <c r="D7" t="n">
-        <v>-413478013642.111</v>
+        <v>-12763503089.7812</v>
       </c>
       <c r="E7" t="n">
-        <v>270358757674.528</v>
+        <v>8345622515.57646</v>
       </c>
       <c r="F7" t="n">
-        <v>413478033537.587</v>
+        <v>12763522952.4371</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>7775</v>
       </c>
       <c r="I7" t="n">
-        <v>2213.42420121421</v>
+        <v>2210.76463676464</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>11758.154212954</v>
+        <v>11754.4599397996</v>
       </c>
       <c r="C8" t="n">
-        <v>-15055545637028.3</v>
+        <v>-205438808589.406</v>
       </c>
       <c r="D8" t="n">
-        <v>-23025470076636.5</v>
+        <v>-314191550782.811</v>
       </c>
       <c r="E8" t="n">
-        <v>15055545660433.7</v>
+        <v>205438831951.43</v>
       </c>
       <c r="F8" t="n">
-        <v>23025470100041.9</v>
+        <v>314191574144.834</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>7270</v>
       </c>
       <c r="I8" t="n">
-        <v>4488.15421295398</v>
+        <v>4484.45993979956</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>11461.1740822121</v>
+        <v>11458.5502902126</v>
       </c>
       <c r="C9" t="n">
-        <v>-787419112880695</v>
+        <v>-4093838696504.06</v>
       </c>
       <c r="D9" t="n">
-        <v>-1204253612172624</v>
+        <v>-6260986001112.62</v>
       </c>
       <c r="E9" t="n">
-        <v>787419112904060</v>
+        <v>4093838719836.03</v>
       </c>
       <c r="F9" t="n">
-        <v>1204253612195988</v>
+        <v>6260986024444.59</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>7270</v>
       </c>
       <c r="I9" t="n">
-        <v>4191.17408221208</v>
+        <v>4188.55029021255</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>8962.13823663395</v>
+        <v>8959.65981735208</v>
       </c>
       <c r="C10" t="n">
-        <v>-30466764831787824</v>
+        <v>-61618410628598</v>
       </c>
       <c r="D10" t="n">
-        <v>-46594895906811504</v>
+        <v>-94237226866224.6</v>
       </c>
       <c r="E10" t="n">
-        <v>30466764831806544</v>
+        <v>61618410647287.7</v>
       </c>
       <c r="F10" t="n">
-        <v>46594895906830224</v>
+        <v>94237226884914.2</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6206</v>
       </c>
       <c r="I10" t="n">
-        <v>2756.13823663395</v>
+        <v>2753.65981735208</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6520.37905126072</v>
+        <v>6518.59158121899</v>
       </c>
       <c r="C11" t="n">
-        <v>-1040368815134178944</v>
+        <v>-852434907167278</v>
       </c>
       <c r="D11" t="n">
-        <v>-1591106798293431552</v>
+        <v>-1303686688960708</v>
       </c>
       <c r="E11" t="n">
-        <v>1040368815134192768</v>
+        <v>852434907180967</v>
       </c>
       <c r="F11" t="n">
-        <v>1591106798293445376</v>
+        <v>1303686688974397</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4793</v>
       </c>
       <c r="I11" t="n">
-        <v>1727.37905126072</v>
+        <v>1725.59158121899</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>4231.05076775432</v>
+        <v>4230.01992385469</v>
       </c>
       <c r="C12" t="n">
-        <v>-31831961780161175552</v>
+        <v>-4658652864034727</v>
       </c>
       <c r="D12" t="n">
-        <v>-48682784465140670464</v>
+        <v>-7124794721861561</v>
       </c>
       <c r="E12" t="n">
-        <v>31831961780161183744</v>
+        <v>4658652864044027</v>
       </c>
       <c r="F12" t="n">
-        <v>48682784465140686848</v>
+        <v>7124794721870861</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>3568</v>
       </c>
       <c r="I12" t="n">
-        <v>663.050767754325</v>
+        <v>662.01992385469</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3391.01256850233</v>
+        <v>3387.57966267475</v>
       </c>
       <c r="C13" t="n">
-        <v>-936162777656131452928</v>
+        <v>-40639861314024624</v>
       </c>
       <c r="D13" t="n">
-        <v>-1431737416740832018432</v>
+        <v>-62153304364576816</v>
       </c>
       <c r="E13" t="n">
-        <v>936162777656131452928</v>
+        <v>40639861314032304</v>
       </c>
       <c r="F13" t="n">
-        <v>1431737416740832018432</v>
+        <v>62153304364584496</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>3272</v>
       </c>
       <c r="I13" t="n">
-        <v>119.012568502334</v>
+        <v>115.579662674753</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2389.09839635075</v>
+        <v>2385.63029127538</v>
       </c>
       <c r="C14" t="n">
-        <v>-28424710132708803608576</v>
+        <v>-483517031700251904</v>
       </c>
       <c r="D14" t="n">
-        <v>-43471842748227758587904</v>
+        <v>-739475486998050176</v>
       </c>
       <c r="E14" t="n">
-        <v>28424710132708803608576</v>
+        <v>483517031700258048</v>
       </c>
       <c r="F14" t="n">
-        <v>43471842748227758587904</v>
+        <v>739475486998056320</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>2633</v>
       </c>
       <c r="I14" t="n">
-        <v>-243.901603649254</v>
+        <v>-247.369708724622</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2157.91453289608</v>
+        <v>2153.77346623727</v>
       </c>
       <c r="C15" t="n">
-        <v>-1033670302870821035573248</v>
+        <v>-6952687675116009472</v>
       </c>
       <c r="D15" t="n">
-        <v>-1580862307834238068588544</v>
+        <v>-10633218206238967808</v>
       </c>
       <c r="E15" t="n">
-        <v>1033670302870821035573248</v>
+        <v>6952687675116015616</v>
       </c>
       <c r="F15" t="n">
-        <v>1580862307834238068588544</v>
+        <v>10633218206238971904</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2623</v>
       </c>
       <c r="I15" t="n">
-        <v>-465.085467103915</v>
+        <v>-469.226533762729</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3007.3342819884</v>
+        <v>3002.98255112035</v>
       </c>
       <c r="C16" t="n">
-        <v>-40333197101286635104894976</v>
+        <v>-127311089915699593216</v>
       </c>
       <c r="D16" t="n">
-        <v>-61684301923726166885138432</v>
+        <v>-194705509927159955456</v>
       </c>
       <c r="E16" t="n">
-        <v>40333197101286635104894976</v>
+        <v>127311089915699593216</v>
       </c>
       <c r="F16" t="n">
-        <v>61684301923726166885138432</v>
+        <v>194705509927159955456</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>3488</v>
       </c>
       <c r="I16" t="n">
-        <v>-480.665718011605</v>
+        <v>-485.017448879647</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4095.30320790177</v>
+        <v>4089.61632319137</v>
       </c>
       <c r="C17" t="n">
-        <v>-1815770071327454648149737472</v>
+        <v>-1567155524971366973440</v>
       </c>
       <c r="D17" t="n">
-        <v>-2776980684733657082213957632</v>
+        <v>-2396757547412120141824</v>
       </c>
       <c r="E17" t="n">
-        <v>1815770071327454648149737472</v>
+        <v>1567155524971366973440</v>
       </c>
       <c r="F17" t="n">
-        <v>2776980684733657082213957632</v>
+        <v>2396757547412120141824</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>3945</v>
       </c>
       <c r="I17" t="n">
-        <v>150.303207901771</v>
+        <v>144.616323191366</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6762.77131357748</v>
+        <v>6753.26522351935</v>
       </c>
       <c r="C18" t="n">
-        <v>-87416661821494405401596133376</v>
+        <v>-15752861290372244963328</v>
       </c>
       <c r="D18" t="n">
-        <v>-133692247292474460362277650432</v>
+        <v>-24091922332804672651264</v>
       </c>
       <c r="E18" t="n">
-        <v>87416661821494405401596133376</v>
+        <v>15752861290372244963328</v>
       </c>
       <c r="F18" t="n">
-        <v>133692247292474460362277650432</v>
+        <v>24091922332804672651264</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5011</v>
       </c>
       <c r="I18" t="n">
-        <v>1751.77131357748</v>
+        <v>1742.26522351935</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>9261.2079158145</v>
+        <v>9252.54935027815</v>
       </c>
       <c r="C19" t="n">
-        <v>-2607568517389463260447771721728</v>
+        <v>-268269376696420237574144</v>
       </c>
       <c r="D19" t="n">
-        <v>-3987931909030927203420361195520</v>
+        <v>-410282606347214915633152</v>
       </c>
       <c r="E19" t="n">
-        <v>2607568517389463260447771721728</v>
+        <v>268269376696420237574144</v>
       </c>
       <c r="F19" t="n">
-        <v>3987931909030927203420361195520</v>
+        <v>410282606347214915633152</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>6408</v>
       </c>
       <c r="I19" t="n">
-        <v>2853.2079158145</v>
+        <v>2844.54935027815</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>11011.9769950732</v>
+        <v>11001.6817588053</v>
       </c>
       <c r="C20" t="n">
-        <v>-72810604096022453446413031309312</v>
+        <v>-2751404725829410104541184</v>
       </c>
       <c r="D20" t="n">
-        <v>-111354209660822299364269523730432</v>
+        <v>-4207910406810133380202496</v>
       </c>
       <c r="E20" t="n">
-        <v>72810604096022453446413031309312</v>
+        <v>2751404725829410104541184</v>
       </c>
       <c r="F20" t="n">
-        <v>111354209660822299364269523730432</v>
+        <v>4207910406810133380202496</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>6982</v>
       </c>
       <c r="I20" t="n">
-        <v>4029.97699507318</v>
+        <v>4019.68175880531</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>10760.3441807911</v>
+        <v>10750.9792658589</v>
       </c>
       <c r="C21" t="n">
-        <v>-1805060831116090865329828869963776</v>
+        <v>-32355579211823649122156544</v>
       </c>
       <c r="D21" t="n">
-        <v>-2760602315200674893537136835821568</v>
+        <v>-49483588221562049857060864</v>
       </c>
       <c r="E21" t="n">
-        <v>1805060831116090865329828869963776</v>
+        <v>32355579211823649122156544</v>
       </c>
       <c r="F21" t="n">
-        <v>2760602315200674893537136835821568</v>
+        <v>49483588221562049857060864</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>5326</v>
       </c>
       <c r="I21" t="n">
-        <v>5434.34418079105</v>
+        <v>5424.97926585886</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>8331.89885877251</v>
+        <v>8324.15841388451</v>
       </c>
       <c r="C22" t="n">
-        <v>-29404348507753379985283137658683392</v>
+        <v>-318482365239334472085667840</v>
       </c>
       <c r="D22" t="n">
-        <v>-44970070353407871097488798050680832</v>
+        <v>-487076745378532108638617600</v>
       </c>
       <c r="E22" t="n">
-        <v>29404348507753379985283137658683392</v>
+        <v>318482365239334472085667840</v>
       </c>
       <c r="F22" t="n">
-        <v>44970070353407871097488798050680832</v>
+        <v>487076745378532108638617600</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5159</v>
       </c>
       <c r="I22" t="n">
-        <v>3172.89885877251</v>
+        <v>3165.15841388451</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>5929.33704488406</v>
+        <v>5924.27452293302</v>
       </c>
       <c r="C23" t="n">
-        <v>-585563685289515906262356541610917888</v>
+        <v>-1243978806196227253580333056</v>
       </c>
       <c r="D23" t="n">
-        <v>-895542375881133252026118289494114304</v>
+        <v>-1902501407845912990319640576</v>
       </c>
       <c r="E23" t="n">
-        <v>585563685289515906262356541610917888</v>
+        <v>1243978806196227253580333056</v>
       </c>
       <c r="F23" t="n">
-        <v>895542375881133252026118289494114304</v>
+        <v>1902501407845912990319640576</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3745</v>
       </c>
       <c r="I23" t="n">
-        <v>2184.33704488406</v>
+        <v>2179.27452293302</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3709.15212292313</v>
+        <v>3705.92257161537</v>
       </c>
       <c r="C24" t="n">
-        <v>-10632489090162717624762453425288904704</v>
+        <v>-7159998221958696371587383296</v>
       </c>
       <c r="D24" t="n">
-        <v>-16260988822465543396224952367344254976</v>
+        <v>-10950272327470755989856190464</v>
       </c>
       <c r="E24" t="n">
-        <v>10632489090162717624762453425288904704</v>
+        <v>7159998221958696371587383296</v>
       </c>
       <c r="F24" t="n">
-        <v>16260988822465543396224952367344254976</v>
+        <v>10950272327470755989856190464</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>2775</v>
       </c>
       <c r="I24" t="n">
-        <v>934.152122923125</v>
+        <v>930.922571615374</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2883.03002948502</v>
+        <v>2877.26952454185</v>
       </c>
       <c r="C25" t="n">
-        <v>-142311180881092251596589743959800020992</v>
+        <v>-45674505494265432724798963712</v>
       </c>
       <c r="D25" t="n">
-        <v>-217646169396059850462535106331116830720</v>
+        <v>-69853128182473868774159155200</v>
       </c>
       <c r="E25" t="n">
-        <v>142311180881092251596589743959800020992</v>
+        <v>45674505494265432724798963712</v>
       </c>
       <c r="F25" t="n">
-        <v>217646169396059850462535106331116830720</v>
+        <v>69853128182473868774159155200</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2807</v>
       </c>
       <c r="I25" t="n">
-        <v>76.0300294850158</v>
+        <v>70.2695245418495</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1900.69649097036</v>
+        <v>1894.90924632875</v>
       </c>
       <c r="C26" t="n">
-        <v>-2635626898914947772330675855914038198272</v>
+        <v>-150222857018880948741045485568</v>
       </c>
       <c r="D26" t="n">
-        <v>-4030843500521249512961509706595167109120</v>
+        <v>-229746033891813659787372003328</v>
       </c>
       <c r="E26" t="n">
-        <v>2635626898914947772330675855914038198272</v>
+        <v>150222857018880948741045485568</v>
       </c>
       <c r="F26" t="n">
-        <v>4030843500521249512961509706595167109120</v>
+        <v>229746033891813659787372003328</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2169</v>
       </c>
       <c r="I26" t="n">
-        <v>-268.303509029643</v>
+        <v>-274.090753671253</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1684.69942740548</v>
+        <v>1678.26843912514</v>
       </c>
       <c r="C27" t="n">
-        <v>-41925702594993479098299478211999372935168</v>
+        <v>-3085645299174517961351174815744</v>
       </c>
       <c r="D27" t="n">
-        <v>-64119828902713701549837211494144381288448</v>
+        <v>-4719087251769971728424739274752</v>
       </c>
       <c r="E27" t="n">
-        <v>41925702594993479098299478211999372935168</v>
+        <v>3085645299174517961351174815744</v>
       </c>
       <c r="F27" t="n">
-        <v>64119828902713701549837211494144381288448</v>
+        <v>4719087251769971728424739274752</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>2043</v>
       </c>
       <c r="I27" t="n">
-        <v>-358.300572594525</v>
+        <v>-364.731560874859</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2505.80702778735</v>
+        <v>2498.75313584477</v>
       </c>
       <c r="C28" t="n">
-        <v>-979048024431471335623153213386902695051264</v>
+        <v>-61953441329185108803245460946944</v>
       </c>
       <c r="D28" t="n">
-        <v>-1497324741829900891703174507345535765053440</v>
+        <v>-94749612101575782391716836802560</v>
       </c>
       <c r="E28" t="n">
-        <v>979048024431471335623153213386902695051264</v>
+        <v>61953441329185108803245460946944</v>
       </c>
       <c r="F28" t="n">
-        <v>1497324741829900891703174507345535765053440</v>
+        <v>94749612101575782391716836802560</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2836</v>
       </c>
       <c r="I28" t="n">
-        <v>-330.19297221265</v>
+        <v>-337.246864155225</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3552.62594805804</v>
+        <v>3543.8835029969</v>
       </c>
       <c r="C29" t="n">
-        <v>-14900277853483197142137856406403813851791360</v>
+        <v>-654056074761088873850716941189120</v>
       </c>
       <c r="D29" t="n">
-        <v>-22788008487240603917045630013696958883954688</v>
+        <v>-1000292446177623060117428608434176</v>
       </c>
       <c r="E29" t="n">
-        <v>14900277853483197142137856406403813851791360</v>
+        <v>654056074761088873850716941189120</v>
       </c>
       <c r="F29" t="n">
-        <v>22788008487240603917045630013696958883954688</v>
+        <v>1000292446177623060117428608434176</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>2587</v>
       </c>
       <c r="I29" t="n">
-        <v>965.625948058037</v>
+        <v>956.883502996902</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6137.58699860173</v>
+        <v>6123.92888972286</v>
       </c>
       <c r="C30" t="n">
-        <v>-392297990193049084398524775084373154570698752</v>
+        <v>-7353537837036165128137529647693824</v>
       </c>
       <c r="D30" t="n">
-        <v>-599968001801847422940177881072631095253532672</v>
+        <v>-11246265626009927577000443654438912</v>
       </c>
       <c r="E30" t="n">
-        <v>392297990193049084398524775084373154570698752</v>
+        <v>7353537837036165128137529647693824</v>
       </c>
       <c r="F30" t="n">
-        <v>599968001801847422940177881072631095253532672</v>
+        <v>11246265626009927577000443654438912</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>3520</v>
       </c>
       <c r="I30" t="n">
-        <v>2617.58699860173</v>
+        <v>2603.92888972286</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>8565.32883061753</v>
+        <v>8551.86399403502</v>
       </c>
       <c r="C31" t="n">
-        <v>-6922276890177248784995930738399473110446243840</v>
+        <v>-120772485481520454648767389594812416</v>
       </c>
       <c r="D31" t="n">
-        <v>-10586708924190500158321572444679762125397164032</v>
+        <v>-184705577388589794479707922855100416</v>
       </c>
       <c r="E31" t="n">
-        <v>6922276890177248784995930738399473110446243840</v>
+        <v>120772485481520454648767389594812416</v>
       </c>
       <c r="F31" t="n">
-        <v>10586708924190500158321572444679762125397164032</v>
+        <v>184705577388589794479707922855100416</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>4708</v>
       </c>
       <c r="I31" t="n">
-        <v>3857.32883061753</v>
+        <v>3843.86399403502</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>10296.2971395785</v>
+        <v>10280.9491940732</v>
       </c>
       <c r="C32" t="n">
-        <v>-161708815042621298157041990250221703196896657408</v>
+        <v>-1276303618183435528325234704408117248</v>
       </c>
       <c r="D32" t="n">
-        <v>-247312290810163518126855727299054798172913139712</v>
+        <v>-1951937941657983133442448473924304896</v>
       </c>
       <c r="E32" t="n">
-        <v>161708815042621298157041990250221703196896657408</v>
+        <v>1276303618183435528325234704408117248</v>
       </c>
       <c r="F32" t="n">
-        <v>247312290810163518126855727299054798172913139712</v>
+        <v>1951937941657983133442448473924304896</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>5055</v>
       </c>
       <c r="I32" t="n">
-        <v>5241.29713957847</v>
+        <v>5225.94919407325</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>10088.9373444192</v>
+        <v>10074.6300114493</v>
       </c>
       <c r="C33" t="n">
-        <v>-2458162606636248021838174478939007923120374808576</v>
+        <v>-9862750210885582325790719409114841088</v>
       </c>
       <c r="D33" t="n">
-        <v>-3759435286634567674477840838150635954562442199040</v>
+        <v>-15083774794216670482595152515590782976</v>
       </c>
       <c r="E33" t="n">
-        <v>2458162606636248021838174478939007923120374808576</v>
+        <v>9862750210885582325790719409114841088</v>
       </c>
       <c r="F33" t="n">
-        <v>3759435286634567674477840838150635954562442199040</v>
+        <v>15083774794216670482595152515590782976</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4505</v>
       </c>
       <c r="I33" t="n">
-        <v>5583.93734441916</v>
+        <v>5569.6300114493</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7731.75367348083</v>
+        <v>7719.89629549637</v>
       </c>
       <c r="C34" t="n">
-        <v>-27657949259095620782806186112220824922247441416192</v>
+        <v>-151807848191963202030618684820553728000</v>
       </c>
       <c r="D34" t="n">
-        <v>-42299183186614512555270935545862627425826168111104</v>
+        <v>-232170068709121210613020869980216885248</v>
       </c>
       <c r="E34" t="n">
-        <v>27657949259095620782806186112220824922247441416192</v>
+        <v>151807848191963202030618684820553728000</v>
       </c>
       <c r="F34" t="n">
-        <v>42299183186614512555270935545862627425826168111104</v>
+        <v>232170068709121210613020869980216885248</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>3134</v>
       </c>
       <c r="I34" t="n">
-        <v>4597.75367348083</v>
+        <v>4585.89629549637</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5369.06653979224</v>
+        <v>5361.34474932076</v>
       </c>
       <c r="C35" t="n">
-        <v>-800720002170637971502699942050878381220915037863936</v>
+        <v>-1122625539147273628717644156916094468096</v>
       </c>
       <c r="D35" t="n">
-        <v>-1224595566927787634518521835500953059111142068060160</v>
+        <v>-1716907601699575172179008093264751362048</v>
       </c>
       <c r="E35" t="n">
-        <v>800720002170637971502699942050878381220915037863936</v>
+        <v>1122625539147273628717644156916094468096</v>
       </c>
       <c r="F35" t="n">
-        <v>1224595566927787634518521835500953059111142068060160</v>
+        <v>1716907601699575172179008093264751362048</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2559</v>
       </c>
       <c r="I35" t="n">
-        <v>2810.06653979224</v>
+        <v>2802.34474932076</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3201.25980844688</v>
+        <v>3196.26052896161</v>
       </c>
       <c r="C36" t="n">
-        <v>-8581339640080612456644116287188687444562481363550208</v>
+        <v>-10659900656694055742046676179233366081536</v>
       </c>
       <c r="D36" t="n">
-        <v>-13124026442522859214135801993394106818580019815645184</v>
+        <v>-16302911195786833707556663855694653423616</v>
       </c>
       <c r="E36" t="n">
-        <v>8581339640080612456644116287188687444562481363550208</v>
+        <v>10659900656694055742046676179233366081536</v>
       </c>
       <c r="F36" t="n">
-        <v>13124026442522859214135801993394106818580019815645184</v>
+        <v>16302911195786833707556663855694653423616</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>1975</v>
       </c>
       <c r="I36" t="n">
-        <v>1226.25980844688</v>
+        <v>1221.26052896161</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2392.39029800068</v>
+        <v>2384.87202240433</v>
       </c>
       <c r="C37" t="n">
-        <v>-114393232284826357605224828814912211683080968773566464</v>
+        <v>-52311226777303174854486376079161697501184</v>
       </c>
       <c r="D37" t="n">
-        <v>-174949351537100759951599060509534404345025976632082432</v>
+        <v>-80003117492234295683426320949286281412608</v>
       </c>
       <c r="E37" t="n">
-        <v>114393232284826357605224828814912211683080968773566464</v>
+        <v>52311226777303174854486376079161697501184</v>
       </c>
       <c r="F37" t="n">
-        <v>174949351537100759951599060509534404345025976632082432</v>
+        <v>80003117492234295683426320949286281412608</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1215</v>
       </c>
       <c r="I37" t="n">
-        <v>1177.39029800068</v>
+        <v>1169.87202240433</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1423.10610274813</v>
+        <v>1415.51818396076</v>
       </c>
       <c r="C38" t="n">
-        <v>-2419650849648524582604823842297742666365188547891167232</v>
+        <v>-232674819783842691677857450863515475640320</v>
       </c>
       <c r="D38" t="n">
-        <v>-3700536636976861139854298567283638245428071894190391296</v>
+        <v>-355845429201973236861618154764248981438464</v>
       </c>
       <c r="E38" t="n">
-        <v>2419650849648524582604823842297742666365188547891167232</v>
+        <v>232674819783842691677857450863515475640320</v>
       </c>
       <c r="F38" t="n">
-        <v>3700536636976861139854298567283638245428071894190391296</v>
+        <v>355845429201973236861618154764248981438464</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1924</v>
       </c>
       <c r="I38" t="n">
-        <v>-500.89389725187</v>
+        <v>-508.481816039244</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1218.11133947179</v>
+        <v>1209.86500227995</v>
       </c>
       <c r="C39" t="n">
-        <v>-29071824755789234094964597689437587662909849549240532992</v>
+        <v>-4342456297750518652659529542300652747620352</v>
       </c>
       <c r="D39" t="n">
-        <v>-44461519160169780322023461475082605785673499805854203904</v>
+        <v>-6641213804310204828009707769276491991351296</v>
       </c>
       <c r="E39" t="n">
-        <v>29071824755789234094964597689437587662909849549240532992</v>
+        <v>4342456297750518652659529542300652747620352</v>
       </c>
       <c r="F39" t="n">
-        <v>44461519160169780322023461475082605785673499805854203904</v>
+        <v>6641213804310204828009707769276491991351296</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>2346</v>
       </c>
       <c r="I39" t="n">
-        <v>-1127.88866052821</v>
+        <v>-1136.13499772005</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>2019.81477189243</v>
+        <v>2010.66710596476</v>
       </c>
       <c r="C40" t="n">
-        <v>-616443298774151558658683142238886465293907280915970654208</v>
+        <v>-199080742335969220345151085627262499546988544</v>
       </c>
       <c r="D40" t="n">
-        <v>-942768669316063188833780910375734756922126267772448014336</v>
+        <v>-304467721381296627899090120239091297390952448</v>
       </c>
       <c r="E40" t="n">
-        <v>616443298774151558658683142238886465293907280915970654208</v>
+        <v>199080742335969220345151085627262499546988544</v>
       </c>
       <c r="F40" t="n">
-        <v>942768669316063188833780910375734756922126267772448014336</v>
+        <v>304467721381296627899090120239091297390952448</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>2530</v>
       </c>
       <c r="I40" t="n">
-        <v>-510.18522810757</v>
+        <v>-519.332894035239</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>3030.41879971408</v>
+        <v>3019.29603829898</v>
       </c>
       <c r="C41" t="n">
-        <v>-5617122402776971315145123985188989725076465356043823611904</v>
+        <v>-1445569799483619686752577459190682747022606336</v>
       </c>
       <c r="D41" t="n">
-        <v>-8590647385708182677498940795156121803315261269305198641152</v>
+        <v>-2210808226762747270869080550500843918198833152</v>
       </c>
       <c r="E41" t="n">
-        <v>5617122402776971315145123985188989725076465356043823611904</v>
+        <v>1445569799483619686752577459190682747022606336</v>
       </c>
       <c r="F41" t="n">
-        <v>8590647385708182677498940795156121803315261269305198641152</v>
+        <v>2210808226762747270869080550500843918198833152</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>2794</v>
       </c>
       <c r="I41" t="n">
-        <v>236.418799714075</v>
+        <v>225.296038298985</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5547.11345907996</v>
+        <v>5530.1546851214</v>
       </c>
       <c r="C42" t="n">
-        <v>-214630840238530406070452665378489343916387845655915009146880</v>
+        <v>-8284498172322684823637948996982410331780284416</v>
       </c>
       <c r="D42" t="n">
-        <v>-328249543872489310119794546712731851586368468949410575810560</v>
+        <v>-12670046593747669784275981683137693218120925184</v>
       </c>
       <c r="E42" t="n">
-        <v>214630840238530406070452665378489343916387845655915009146880</v>
+        <v>8284498172322684823637948996982410331780284416</v>
       </c>
       <c r="F42" t="n">
-        <v>328249543872489310119794546712731851586368468949410575810560</v>
+        <v>12670046593747669784275981683137693218120925184</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>3753</v>
       </c>
       <c r="I42" t="n">
-        <v>1794.11345907996</v>
+        <v>1777.1546851214</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7908.58709800028</v>
+        <v>7891.23118609786</v>
       </c>
       <c r="C43" t="n">
-        <v>-5164908277320900297348002477303093118881448922993813480275968</v>
+        <v>-135055638413206492370494178623616912420113481728</v>
       </c>
       <c r="D43" t="n">
-        <v>-7899045562556001743592488328627383717754034153164874430021632</v>
+        <v>-206549774754058997731950662982594259376062595072</v>
       </c>
       <c r="E43" t="n">
-        <v>5164908277320900297348002477303093118881448922993813480275968</v>
+        <v>135055638413206492370494178623616912420113481728</v>
       </c>
       <c r="F43" t="n">
-        <v>7899045562556001743592488328627383717754034153164874430021632</v>
+        <v>206549774754058997731950662982594259376062595072</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>4353</v>
       </c>
       <c r="I43" t="n">
-        <v>3555.58709800028</v>
+        <v>3538.23118609786</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>9614.39340357361</v>
+        <v>9595.06033902927</v>
       </c>
       <c r="C44" t="n">
-        <v>-87144676138041879385264355663960042540298963059991658671112192</v>
+        <v>-1171948388938099695422761411001485407325985439744</v>
       </c>
       <c r="D44" t="n">
-        <v>-133276281085409736632830239088877748690706063944799118044430336</v>
+        <v>-1792340390987158313131976887249109876701120167936</v>
       </c>
       <c r="E44" t="n">
-        <v>87144676138041879385264355663960042540298963059991658671112192</v>
+        <v>1171948388938099695422761411001485407325985439744</v>
       </c>
       <c r="F44" t="n">
-        <v>133276281085409736632830239088877748690706063944799118044430336</v>
+        <v>1792340390987158313131976887249109876701120167936</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>4684</v>
       </c>
       <c r="I44" t="n">
-        <v>4930.39340357361</v>
+        <v>4911.06033902927</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>9443.68921851107</v>
+        <v>9425.71012131503</v>
       </c>
       <c r="C45" t="n">
-        <v>-1189889216181499999186606339015227965701287615333829112535973888</v>
+        <v>-9313095079954470131091330939891220788111290138624</v>
       </c>
       <c r="D45" t="n">
-        <v>-1819778518484569619777959025389338373038453418711005753851772928</v>
+        <v>-14243149813133819124994627907149289563674374045696</v>
       </c>
       <c r="E45" t="n">
-        <v>1189889216181499999186606339015227965701287615333829112535973888</v>
+        <v>9313095079954470131091330939891220788111290138624</v>
       </c>
       <c r="F45" t="n">
-        <v>1819778518484569619777959025389338373038453418711005753851772928</v>
+        <v>14243149813133819124994627907149289563674374045696</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4626</v>
       </c>
       <c r="I45" t="n">
-        <v>4817.68921851107</v>
+        <v>4799.71012131503</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>7154.47645730825</v>
+        <v>7139.4393590173</v>
       </c>
       <c r="C46" t="n">
-        <v>-19206994199608285832556348752188839979411349456968172493741228032</v>
+        <v>-50611242135904198017537278992512794819195190640640</v>
       </c>
       <c r="D46" t="n">
-        <v>-29374562752380975608566943643280442516548874136982043663429271552</v>
+        <v>-77403215341596028416037495707903513237798139199488</v>
       </c>
       <c r="E46" t="n">
-        <v>19206994199608285832556348752188839979411349456968172493741228032</v>
+        <v>50611242135904198017537278992512794819195190640640</v>
       </c>
       <c r="F46" t="n">
-        <v>29374562752380975608566943643280442516548874136982043663429271552</v>
+        <v>77403215341596028416037495707903513237798139199488</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>3658</v>
       </c>
       <c r="I46" t="n">
-        <v>3496.47645730825</v>
+        <v>3481.4393590173</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4831.66785549907</v>
+        <v>4821.68430639086</v>
       </c>
       <c r="C47" t="n">
-        <v>-332607526480570855855440480122196164837922405895362158854525681664</v>
+        <v>-815991761818469059550368963253451097137031006912512</v>
       </c>
       <c r="D47" t="n">
-        <v>-508679315304682199970815666697063919675696547213560052894262099968</v>
+        <v>-1247951707792537834834293482196150210910340398448640</v>
       </c>
       <c r="E47" t="n">
-        <v>332607526480570855855440480122196164837922405895362158854525681664</v>
+        <v>815991761818469059550368963253451097137031006912512</v>
       </c>
       <c r="F47" t="n">
-        <v>508679315304682199970815666697063919675696547213560052894262099968</v>
+        <v>1247951707792537834834293482196150210910340398448640</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>3067</v>
       </c>
       <c r="I47" t="n">
-        <v>1764.66785549907</v>
+        <v>1754.68430639086</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2703.72818524834</v>
+        <v>2697.25482224026</v>
       </c>
       <c r="C48" t="n">
-        <v>-2992773773501315156244933626876914041585021634965574118913043595264</v>
+        <v>-7102204198066442181442085482403351732849141717401600</v>
       </c>
       <c r="D48" t="n">
-        <v>-4577052510131298346276534238737995138314769039341722758279505903616</v>
+        <v>-10861883995392734163361146950208262348800529455382528</v>
       </c>
       <c r="E48" t="n">
-        <v>2992773773501315156244933626876914041585021634965574118913043595264</v>
+        <v>7102204198066442181442085482403351732849141717401600</v>
       </c>
       <c r="F48" t="n">
-        <v>4577052510131298346276534238737995138314769039341722758279505903616</v>
+        <v>10861883995392734163361146950208262348800529455382528</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1963</v>
       </c>
       <c r="I48" t="n">
-        <v>740.72818524834</v>
+        <v>734.254822240262</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1912.29987205566</v>
+        <v>1903.41943769773</v>
       </c>
       <c r="C49" t="n">
-        <v>-32513115514090295029051227168076364917870381283466260033984104759296</v>
+        <v>-73258169336298541118554387547503033594683932473819136</v>
       </c>
       <c r="D49" t="n">
-        <v>-49724519204755869372014425501417636065766055609767413556941386940416</v>
+        <v>-112038701627636279359877942154956049914915367080165376</v>
       </c>
       <c r="E49" t="n">
-        <v>32513115514090295029051227168076364917870381283466260033984104759296</v>
+        <v>73258169336298541118554387547503033594683932473819136</v>
       </c>
       <c r="F49" t="n">
-        <v>49724519204755869372014425501417636065766055609767413556941386940416</v>
+        <v>112038701627636279359877942154956049914915367080165376</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>1727</v>
       </c>
       <c r="I49" t="n">
-        <v>185.299872055657</v>
+        <v>176.41943769773</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
